--- a/MechanicalTestingandAnalysis/Rae2021/SaLi.xlsx
+++ b/MechanicalTestingandAnalysis/Rae2021/SaLi.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auriolrae/Dynamic-Strength-and-Fragmentation/Mechanical Testing and Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auriolrae/Dynamic-Strength-and-Fragmentation/MechanicalTestingandAnalysis/Rae2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F42E2AA-245A-AA42-94BA-C4DC3503D375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AB99C5-4F46-964F-BC2E-1E3E189FC954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1780" windowWidth="38400" windowHeight="21140" xr2:uid="{82852CF0-6098-E24F-8D6F-2C3D11CAE912}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16420" xr2:uid="{82852CF0-6098-E24F-8D6F-2C3D11CAE912}"/>
   </bookViews>
   <sheets>
     <sheet name="SaLi" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="SaLi_inertialstresses" localSheetId="0">SaLi!$U$8:$X$20</definedName>
     <definedName name="SaLiSieveData" localSheetId="1">Sheet2!$A$1:$L$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +39,17 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{B5DFD979-330A-184B-9859-1372AF438F61}" name="SaLiSieveData" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{3A1D3617-8859-5343-A294-8CD49C484CE4}" name="SaLi_inertialstresses" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr sourceFile="/Users/auriolrae/Documents/SRDBRD/SHPB/SaLi_inertialstresses.txt" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{B5DFD979-330A-184B-9859-1372AF438F61}" name="SaLiSieveData" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/auriolrae/Documents/SRDBRD/FSDs/MatthiasDoerffler/SaLi-results/SaLiSieveData.txt">
       <textFields count="12">
         <textField/>
@@ -60,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -246,6 +257,15 @@
   </si>
   <si>
     <t>SHPB</t>
+  </si>
+  <si>
+    <t>Max. Long. Inertial Stress (kPa)</t>
+  </si>
+  <si>
+    <t>Max. Rad. Inertial Stress (kPa)</t>
+  </si>
+  <si>
+    <t>Max. Hoop Inertial Stress (kPa)</t>
   </si>
 </sst>
 </file>
@@ -312,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,6 +378,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -378,7 +404,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SaLiSieveData" connectionId="1" xr16:uid="{FB4A5FAC-AEE0-A34D-9C83-81025F5539BE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SaLi_inertialstresses" connectionId="1" xr16:uid="{A28D804B-34EB-BC49-8A25-D0E339A480ED}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SaLiSieveData" connectionId="2" xr16:uid="{FB4A5FAC-AEE0-A34D-9C83-81025F5539BE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -678,11 +708,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C5B88F-5F4C-0944-864A-CF8D297690A4}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,10 +735,15 @@
     <col min="17" max="17" width="9.5" style="3" customWidth="1"/>
     <col min="18" max="18" width="10" style="3" customWidth="1"/>
     <col min="19" max="19" width="12.83203125" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="3"/>
+    <col min="20" max="20" width="10.83203125" style="3"/>
+    <col min="21" max="21" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -727,22 +762,22 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="16"/>
+      <c r="N1" s="18"/>
       <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
@@ -761,8 +796,17 @@
       <c r="T1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -808,7 +852,7 @@
       </c>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
@@ -848,7 +892,7 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -894,7 +938,7 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
@@ -940,7 +984,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>57</v>
       </c>
@@ -984,7 +1028,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>58</v>
       </c>
@@ -1030,7 +1074,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>60</v>
       </c>
@@ -1076,7 +1120,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>21</v>
       </c>
@@ -1129,8 +1173,18 @@
         <f t="shared" ref="S9:S20" si="0">R9-Q9</f>
         <v>2.2999999999999989</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="17">
+        <v>32.279525627311003</v>
+      </c>
+      <c r="V9" s="17">
+        <v>88.627507027130306</v>
+      </c>
+      <c r="W9" s="17">
+        <v>129.84643968901901</v>
+      </c>
+      <c r="X9"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>22</v>
       </c>
@@ -1183,8 +1237,18 @@
         <f t="shared" si="0"/>
         <v>1.4000000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="17">
+        <v>21.250552657114099</v>
+      </c>
+      <c r="V10" s="17">
+        <v>58.346071336169103</v>
+      </c>
+      <c r="W10" s="17">
+        <v>85.481696224671396</v>
+      </c>
+      <c r="X10"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>23</v>
       </c>
@@ -1237,8 +1301,18 @@
         <f t="shared" si="0"/>
         <v>1.7999999999999972</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="17">
+        <v>32.728576375442501</v>
+      </c>
+      <c r="V11" s="17">
+        <v>89.860432467084394</v>
+      </c>
+      <c r="W11" s="17">
+        <v>131.65277481171401</v>
+      </c>
+      <c r="X11"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>24</v>
       </c>
@@ -1291,8 +1365,18 @@
         <f t="shared" si="0"/>
         <v>1.3999999999999986</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="17">
+        <v>36.2706980781116</v>
+      </c>
+      <c r="V12" s="17">
+        <v>99.585774150192705</v>
+      </c>
+      <c r="W12" s="17">
+        <v>145.90118407729699</v>
+      </c>
+      <c r="X12"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>25</v>
       </c>
@@ -1345,8 +1429,18 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="17">
+        <v>31.780637752816101</v>
+      </c>
+      <c r="V13" s="17">
+        <v>87.257747473875298</v>
+      </c>
+      <c r="W13" s="17">
+        <v>127.839631563797</v>
+      </c>
+      <c r="X13"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>26</v>
       </c>
@@ -1399,8 +1493,18 @@
         <f t="shared" si="0"/>
         <v>2.3000000000000043</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="17">
+        <v>37.783596639750897</v>
+      </c>
+      <c r="V14" s="17">
+        <v>103.739627879368</v>
+      </c>
+      <c r="W14" s="17">
+        <v>151.98691452165301</v>
+      </c>
+      <c r="X14"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>27</v>
       </c>
@@ -1453,8 +1557,18 @@
         <f t="shared" si="0"/>
         <v>2.2999999999999972</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="17">
+        <v>51.068187643675898</v>
+      </c>
+      <c r="V15" s="17">
+        <v>140.21414724333201</v>
+      </c>
+      <c r="W15" s="17">
+        <v>205.42502462587899</v>
+      </c>
+      <c r="X15"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>28</v>
       </c>
@@ -1507,8 +1621,18 @@
         <f t="shared" si="0"/>
         <v>2.6000000000000014</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U16" s="17">
+        <v>54.318023207683197</v>
+      </c>
+      <c r="V16" s="17">
+        <v>149.136980484796</v>
+      </c>
+      <c r="W16" s="17">
+        <v>218.497694355699</v>
+      </c>
+      <c r="X16"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>29</v>
       </c>
@@ -1561,8 +1685,18 @@
         <f t="shared" si="0"/>
         <v>1.6000000000000014</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U17" s="17">
+        <v>60.0659431495558</v>
+      </c>
+      <c r="V17" s="17">
+        <v>164.918619314354</v>
+      </c>
+      <c r="W17" s="17">
+        <v>241.61906697705501</v>
+      </c>
+      <c r="X17"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>30</v>
       </c>
@@ -1615,8 +1749,18 @@
         <f t="shared" si="0"/>
         <v>1.7999999999999972</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U18" s="17">
+        <v>89.580277024367106</v>
+      </c>
+      <c r="V18" s="17">
+        <v>245.95394378262199</v>
+      </c>
+      <c r="W18" s="17">
+        <v>360.342347414448</v>
+      </c>
+      <c r="X18"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>31</v>
       </c>
@@ -1669,8 +1813,18 @@
         <f t="shared" si="0"/>
         <v>2.2999999999999972</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U19" s="17">
+        <v>102.194369794149</v>
+      </c>
+      <c r="V19" s="17">
+        <v>280.58752571633198</v>
+      </c>
+      <c r="W19" s="17">
+        <v>411.083335834595</v>
+      </c>
+      <c r="X19"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>32</v>
       </c>
@@ -1723,12 +1877,54 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U20" s="17">
+        <v>113.97042769094899</v>
+      </c>
+      <c r="V20" s="17">
+        <v>312.92017725683201</v>
+      </c>
+      <c r="W20" s="17">
+        <v>458.45327581219698</v>
+      </c>
+      <c r="X20"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X21"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
+      <c r="X22"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X23"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X24"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X25"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X26"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X27"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X28"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X29"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X30"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X31"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X32"/>
     </row>
   </sheetData>
   <mergeCells count="4">
